--- a/medicine/Enfance/Diabète_néonatal/Diabète_néonatal.xlsx
+++ b/medicine/Enfance/Diabète_néonatal/Diabète_néonatal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_n%C3%A9onatal</t>
+          <t>Diabète_néonatal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diabète néonatal est un diabète insulino-dépendant qui apparaît durant les premiers mois de vie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_n%C3%A9onatal</t>
+          <t>Diabète_néonatal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,11 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe sous deux formes :
-Diabète néonatal transitoire
-Le diabète néonatal transitoire représente environ la moitié des cas. Il se manifeste par un retard de croissance intra-utérin, entre en rémission après un délai de quelques mois, et récidive sous forme d’un diabète définitif, habituellement au moment de l'adolescence ou à l'âge adulte[1].
-Diabète néonatal permanent
-Le diabète néonatal permanent est caractérisé par une production d'insuline qui devient très rapidement insuffisante après la naissance. Il persiste sans que l’on observe de phase de rémission[1].
 </t>
         </is>
       </c>
@@ -528,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_n%C3%A9onatal</t>
+          <t>Diabète_néonatal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prévalence</t>
+          <t>Typologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le diabète néonatal est une pathologie rare, observée chez environ 1 pour 90 000 à 160 000 naissances vivantes. Une trentaine de gènes différents, lorsqu’ils sont mutés, peuvent être responsables de diabète néonatal, comme le gène LRBA[1].
+          <t>Diabète néonatal transitoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète néonatal transitoire représente environ la moitié des cas. Il se manifeste par un retard de croissance intra-utérin, entre en rémission après un délai de quelques mois, et récidive sous forme d’un diabète définitif, habituellement au moment de l'adolescence ou à l'âge adulte.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_n%C3%A9onatal</t>
+          <t>Diabète_néonatal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pronostic et traitement</t>
+          <t>Typologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le pronostic et le traitement du diabète néonatal dépendent du gène touché.
+          <t>Diabète néonatal permanent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète néonatal permanent est caractérisé par une production d'insuline qui devient très rapidement insuffisante après la naissance. Il persiste sans que l’on observe de phase de rémission.
 </t>
         </is>
       </c>
@@ -590,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diab%C3%A8te_n%C3%A9onatal</t>
+          <t>Diabète_néonatal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +627,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prévalence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète néonatal est une pathologie rare, observée chez environ 1 pour 90 000 à 160 000 naissances vivantes. Une trentaine de gènes différents, lorsqu’ils sont mutés, peuvent être responsables de diabète néonatal, comme le gène LRBA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diabète_néonatal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_n%C3%A9onatal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pronostic et traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pronostic et le traitement du diabète néonatal dépendent du gène touché.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diabète_néonatal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diab%C3%A8te_n%C3%A9onatal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte d'un diabète néonatal est une urgence et implique une prise en charge dans une unité spécialisée.
 </t>
